--- a/public/permissions_files/CITES_MINEC_Tramites_vs_requisitos_consolidados_y_detallados.xlsx
+++ b/public/permissions_files/CITES_MINEC_Tramites_vs_requisitos_consolidados_y_detallados.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\ovm-minec\public\permissions_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F76C856-0397-47E7-92E2-46935B10FC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trámites Diversidad Biológica" sheetId="4" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="951">
   <si>
     <t xml:space="preserve">Portal: 
 Diversidad Biol.  </t>
@@ -798,13 +804,7 @@
     <t>87.18. Permiso CITES de Exportación con Fines No Comerciales otorgado, en original (incluyendo las copias anexas), solo en caso de sustitución, por no efectuar la exportación de los especímenes.  Indispensable.</t>
   </si>
   <si>
-    <t>1. Hoja de Verificación de Recaudos Descargar</t>
-  </si>
-  <si>
     <t>1. Hoja de Verificación de Recaudos.</t>
-  </si>
-  <si>
-    <t>1.Hoja de Verificación de Recaudos.</t>
   </si>
   <si>
     <t>2. Formato para la presentación del proyecto de investigación</t>
@@ -2999,7 +2999,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3649,16 +3649,15 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BK55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3868,67 +3867,67 @@
         <v>3</v>
       </c>
       <c r="D3" s="24" t="s">
+        <v>633</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>635</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="G3" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="H3" s="24" t="s">
         <v>637</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="I3" s="24" t="s">
         <v>638</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="J3" s="24" t="s">
         <v>639</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="K3" s="24" t="s">
         <v>640</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="L3" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="M3" s="24" t="s">
         <v>642</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="N3" s="24" t="s">
         <v>643</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="O3" s="24" t="s">
         <v>644</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="P3" s="24" t="s">
         <v>645</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="Q3" s="24" t="s">
         <v>646</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="R3" s="24" t="s">
         <v>647</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="S3" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="T3" s="24" t="s">
         <v>649</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="U3" s="24" t="s">
         <v>650</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="V3" s="24" t="s">
         <v>651</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="W3" s="24" t="s">
         <v>652</v>
       </c>
-      <c r="V3" s="24" t="s">
-        <v>653</v>
-      </c>
-      <c r="W3" s="24" t="s">
-        <v>654</v>
-      </c>
       <c r="X3" s="25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Y3" s="25" t="s">
         <v>4</v>
@@ -3949,7 +3948,7 @@
         <v>9</v>
       </c>
       <c r="AE3" s="25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AF3" s="26" t="s">
         <v>10</v>
@@ -4006,7 +4005,7 @@
         <v>26</v>
       </c>
       <c r="AX3" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AY3" s="26" t="s">
         <v>27</v>
@@ -4021,31 +4020,31 @@
         <v>30</v>
       </c>
       <c r="BC3" s="25" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="BD3" s="27" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="BE3" s="27" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="BF3" s="27" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="BG3" s="27" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="BH3" s="27" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="BI3" s="27" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="BJ3" s="27" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="BK3" s="27" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="4" spans="2:63" ht="28.5" x14ac:dyDescent="0.2">
@@ -4077,7 +4076,7 @@
         <v>74</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="N4" s="29" t="s">
         <v>74</v>
@@ -4101,7 +4100,7 @@
         <v>74</v>
       </c>
       <c r="U4" s="29" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="V4" s="29" t="s">
         <v>74</v>
@@ -4116,13 +4115,13 @@
         <v>74</v>
       </c>
       <c r="Z4" s="29" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="AA4" s="29" t="s">
         <v>74</v>
       </c>
       <c r="AB4" s="29" t="s">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="AC4" s="29" t="s">
         <v>74</v>
@@ -4131,16 +4130,16 @@
         <v>74</v>
       </c>
       <c r="AE4" s="29" t="s">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="AF4" s="29" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AG4" s="29" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AH4" s="29" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AI4" s="29" t="s">
         <v>74</v>
@@ -4152,10 +4151,10 @@
         <v>74</v>
       </c>
       <c r="AL4" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AM4" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN4" s="29" t="s">
         <v>74</v>
@@ -4170,37 +4169,37 @@
         <v>74</v>
       </c>
       <c r="AR4" s="29" t="s">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="AS4" s="29" t="s">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="AT4" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AU4" s="29" t="s">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="AV4" s="29" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="AW4" s="29" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="AX4" s="29" t="s">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="AY4" s="29" t="s">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="AZ4" s="29" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="BA4" s="29" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="BB4" s="29" t="s">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="BC4" s="29" t="s">
         <v>74</v>
@@ -4244,7 +4243,7 @@
         <v>76</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>76</v>
@@ -4259,7 +4258,7 @@
         <v>76</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="N5" s="29" t="s">
         <v>76</v>
@@ -4283,7 +4282,7 @@
         <v>76</v>
       </c>
       <c r="U5" s="29" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="V5" s="29" t="s">
         <v>76</v>
@@ -4292,13 +4291,13 @@
         <v>76</v>
       </c>
       <c r="X5" s="29" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Y5" s="29" t="s">
         <v>76</v>
       </c>
       <c r="Z5" s="29" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AA5" s="29" t="s">
         <v>76</v>
@@ -4313,16 +4312,16 @@
         <v>77</v>
       </c>
       <c r="AE5" s="29" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AF5" s="29" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG5" s="29" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AH5" s="29" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AI5" s="29" t="s">
         <v>77</v>
@@ -4352,43 +4351,43 @@
         <v>82</v>
       </c>
       <c r="AR5" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="AS5" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="AT5" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU5" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="AS5" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="AT5" s="29" t="s">
+      <c r="AV5" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="AU5" s="29" t="s">
+      <c r="AW5" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX5" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="AV5" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="AW5" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="AX5" s="29" t="s">
-        <v>266</v>
-      </c>
       <c r="AY5" s="29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AZ5" s="29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BA5" s="29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BB5" s="29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BC5" s="29" t="s">
         <v>76</v>
       </c>
       <c r="BD5" s="29" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="BE5" s="29" t="s">
         <v>76</v>
@@ -4414,79 +4413,79 @@
     </row>
     <row r="6" spans="2:63" ht="99.75" x14ac:dyDescent="0.2">
       <c r="D6" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H6" s="29" t="s">
         <v>85</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="P6" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="Q6" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="T6" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="U6" s="29" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="V6" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="W6" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="X6" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y6" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z6" s="29" t="s">
         <v>267</v>
-      </c>
-      <c r="Y6" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z6" s="29" t="s">
-        <v>269</v>
       </c>
       <c r="AA6" s="29" t="s">
         <v>83</v>
       </c>
       <c r="AB6" s="29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AC6" s="29" t="s">
         <v>84</v>
@@ -4495,16 +4494,16 @@
         <v>85</v>
       </c>
       <c r="AE6" s="29" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF6" s="29" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AG6" s="29" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AH6" s="29" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AI6" s="29" t="s">
         <v>85</v>
@@ -4534,85 +4533,85 @@
         <v>88</v>
       </c>
       <c r="AR6" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="AS6" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="AT6" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU6" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="AV6" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW6" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="AX6" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="AS6" s="29" t="s">
+      <c r="AY6" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="AT6" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="AU6" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="AV6" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="AW6" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="AX6" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="AY6" s="29" t="s">
-        <v>273</v>
-      </c>
       <c r="AZ6" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BA6" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BB6" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BC6" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BD6" s="29" t="s">
         <v>85</v>
       </c>
       <c r="BE6" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BF6" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BG6" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BH6" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BI6" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BJ6" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BK6" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="2:63" ht="299.25" x14ac:dyDescent="0.2">
       <c r="D7" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H7" s="29" t="s">
         <v>89</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
@@ -4621,31 +4620,31 @@
       </c>
       <c r="N7" s="29"/>
       <c r="O7" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P7" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="29" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="R7" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S7" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="T7" s="29" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="U7" s="29" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="V7" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="W7" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="X7" s="29" t="s">
         <v>92</v>
@@ -4654,13 +4653,13 @@
         <v>89</v>
       </c>
       <c r="Z7" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AA7" s="29" t="s">
         <v>89</v>
       </c>
       <c r="AB7" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AC7" s="29" t="s">
         <v>89</v>
@@ -4669,16 +4668,16 @@
         <v>90</v>
       </c>
       <c r="AE7" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF7" s="29" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG7" s="29" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AH7" s="29" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AI7" s="29" t="s">
         <v>91</v>
@@ -4708,46 +4707,46 @@
         <v>92</v>
       </c>
       <c r="AR7" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="AS7" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="AT7" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU7" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="AV7" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AW7" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AX7" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="AY7" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ7" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="AS7" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="AT7" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="AU7" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="AV7" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW7" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="AX7" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY7" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ7" s="29" t="s">
-        <v>277</v>
-      </c>
       <c r="BA7" s="29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BB7" s="29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BC7" s="29"/>
       <c r="BD7" s="30"/>
       <c r="BE7" s="29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="BF7" s="29"/>
       <c r="BG7" s="29" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="BH7" s="29"/>
       <c r="BI7" s="29"/>
@@ -4760,7 +4759,7 @@
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="29" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
@@ -4777,24 +4776,24 @@
       <c r="S8" s="31"/>
       <c r="T8" s="31"/>
       <c r="U8" s="29" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="V8" s="31"/>
       <c r="W8" s="31"/>
       <c r="X8" s="29" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Y8" s="30" t="s">
         <v>97</v>
       </c>
       <c r="Z8" s="30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AA8" s="29" t="s">
         <v>96</v>
       </c>
       <c r="AB8" s="29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AC8" s="30" t="s">
         <v>97</v>
@@ -4803,7 +4802,7 @@
         <v>98</v>
       </c>
       <c r="AE8" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AF8" s="29" t="s">
         <v>96</v>
@@ -4838,24 +4837,24 @@
         <v>101</v>
       </c>
       <c r="AR8" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="AS8" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT8" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="AS8" s="29" t="s">
+      <c r="AU8" s="29" t="s">
         <v>283</v>
-      </c>
-      <c r="AT8" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU8" s="29" t="s">
-        <v>285</v>
       </c>
       <c r="AV8" s="30"/>
       <c r="AW8" s="30"/>
       <c r="AX8" s="29" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AY8" s="29" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AZ8" s="30"/>
       <c r="BA8" s="30"/>
@@ -4889,12 +4888,12 @@
       <c r="S9" s="31"/>
       <c r="T9" s="31"/>
       <c r="U9" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="V9" s="31"/>
       <c r="W9" s="31"/>
       <c r="X9" s="30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Y9" s="30"/>
       <c r="Z9" s="30"/>
@@ -4924,10 +4923,10 @@
       <c r="AR9" s="29"/>
       <c r="AS9" s="29"/>
       <c r="AT9" s="29" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AU9" s="29" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AV9" s="29"/>
       <c r="AW9" s="30"/>
@@ -5142,79 +5141,79 @@
     </row>
     <row r="13" spans="2:63" ht="228" x14ac:dyDescent="0.2">
       <c r="D13" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="I13" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="J13" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>659</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="X13" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y13" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z13" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="Y13" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="Z13" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="AA13" s="29" t="s">
         <v>106</v>
       </c>
       <c r="AB13" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AC13" s="29" t="s">
         <v>31</v>
@@ -5223,16 +5222,16 @@
         <v>32</v>
       </c>
       <c r="AE13" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG13" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="AF13" s="9" t="s">
+      <c r="AH13" s="9" t="s">
         <v>296</v>
-      </c>
-      <c r="AG13" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH13" s="9" t="s">
-        <v>298</v>
       </c>
       <c r="AI13" s="29" t="s">
         <v>33</v>
@@ -5262,141 +5261,141 @@
         <v>114</v>
       </c>
       <c r="AR13" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="AS13" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT13" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="AS13" s="9" t="s">
+      <c r="AU13" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="AT13" s="9" t="s">
+      <c r="AV13" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="AU13" s="9" t="s">
+      <c r="AW13" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="AV13" s="9" t="s">
+      <c r="AX13" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="AW13" s="9" t="s">
+      <c r="AY13" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="AX13" s="9" t="s">
+      <c r="AZ13" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="AY13" s="9" t="s">
+      <c r="BA13" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="AZ13" s="9" t="s">
+      <c r="BB13" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="BA13" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="BB13" s="9" t="s">
-        <v>309</v>
-      </c>
       <c r="BC13" s="9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="BD13" s="29" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="BE13" s="29" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="BF13" s="29" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="BG13" s="29" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="BH13" s="29" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="BI13" s="29" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="BJ13" s="29" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="BK13" s="29" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="14" spans="2:63" ht="299.25" x14ac:dyDescent="0.2">
       <c r="D14" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="I14" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="J14" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="M14" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="N14" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="O14" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="P14" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="Q14" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="R14" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="S14" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="T14" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="U14" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="T14" s="9" t="s">
+      <c r="V14" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="U14" s="9" t="s">
+      <c r="W14" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="V14" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>679</v>
-      </c>
       <c r="X14" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y14" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z14" s="9" t="s">
         <v>310</v>
-      </c>
-      <c r="Y14" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z14" s="9" t="s">
-        <v>312</v>
       </c>
       <c r="AA14" s="29" t="s">
         <v>115</v>
       </c>
       <c r="AB14" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AC14" s="29" t="s">
         <v>34</v>
@@ -5405,16 +5404,16 @@
         <v>35</v>
       </c>
       <c r="AE14" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG14" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="AF14" s="9" t="s">
+      <c r="AH14" s="9" t="s">
         <v>315</v>
-      </c>
-      <c r="AG14" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="AH14" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="AI14" s="29" t="s">
         <v>36</v>
@@ -5444,141 +5443,141 @@
         <v>123</v>
       </c>
       <c r="AR14" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="AS14" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="AT14" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="AS14" s="9" t="s">
+      <c r="AU14" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="AT14" s="9" t="s">
+      <c r="AV14" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="AU14" s="9" t="s">
+      <c r="AW14" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="AV14" s="9" t="s">
+      <c r="AX14" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="AW14" s="9" t="s">
+      <c r="AY14" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="AX14" s="9" t="s">
+      <c r="AZ14" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="AY14" s="9" t="s">
+      <c r="BA14" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="AZ14" s="9" t="s">
+      <c r="BB14" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="BA14" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="BB14" s="9" t="s">
-        <v>328</v>
-      </c>
       <c r="BC14" s="9" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="BD14" s="29" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="BE14" s="29" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="BF14" s="29" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="BG14" s="29" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="BH14" s="29" t="s">
+        <v>914</v>
+      </c>
+      <c r="BI14" s="29" t="s">
         <v>916</v>
       </c>
-      <c r="BI14" s="29" t="s">
-        <v>918</v>
-      </c>
       <c r="BJ14" s="29" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="BK14" s="29" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="15" spans="2:63" ht="199.5" x14ac:dyDescent="0.2">
       <c r="D15" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="I15" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="J15" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="M15" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="N15" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="O15" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="P15" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="Q15" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="R15" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="S15" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="T15" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="U15" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="T15" s="9" t="s">
+      <c r="V15" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="W15" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="V15" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>699</v>
-      </c>
       <c r="X15" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y15" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z15" s="9" t="s">
         <v>329</v>
-      </c>
-      <c r="Y15" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z15" s="9" t="s">
-        <v>331</v>
       </c>
       <c r="AA15" s="29" t="s">
         <v>124</v>
       </c>
       <c r="AB15" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AC15" s="32" t="s">
         <v>37</v>
@@ -5587,16 +5586,16 @@
         <v>38</v>
       </c>
       <c r="AE15" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="AG15" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="AF15" s="9" t="s">
+      <c r="AH15" s="9" t="s">
         <v>334</v>
-      </c>
-      <c r="AG15" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="AH15" s="9" t="s">
-        <v>336</v>
       </c>
       <c r="AI15" s="29" t="s">
         <v>39</v>
@@ -5626,139 +5625,139 @@
         <v>132</v>
       </c>
       <c r="AR15" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="AS15" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT15" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="AS15" s="9" t="s">
+      <c r="AU15" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="AT15" s="9" t="s">
+      <c r="AV15" s="9" t="s">
         <v>339</v>
-      </c>
-      <c r="AU15" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="AV15" s="9" t="s">
-        <v>341</v>
       </c>
       <c r="AW15" s="30"/>
       <c r="AX15" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="AY15" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ15" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="AY15" s="9" t="s">
+      <c r="BA15" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="AZ15" s="9" t="s">
+      <c r="BB15" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="BA15" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="BB15" s="9" t="s">
-        <v>346</v>
-      </c>
       <c r="BC15" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="BD15" s="29" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="BE15" s="29" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="BF15" s="29" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="BG15" s="29" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="BH15" s="29" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="BI15" s="29" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="BJ15" s="29" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="BK15" s="29" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="16" spans="2:63" ht="370.5" x14ac:dyDescent="0.2">
       <c r="D16" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="H16" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="K16" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="L16" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="M16" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="L16" s="12" t="s">
+      <c r="N16" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="P16" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="Q16" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="N16" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="P16" s="9" t="s">
+      <c r="R16" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="S16" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="T16" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="U16" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="T16" s="9" t="s">
+      <c r="V16" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="U16" s="9" t="s">
+      <c r="W16" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="V16" s="9" t="s">
-        <v>713</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>714</v>
-      </c>
       <c r="X16" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y16" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z16" s="9" t="s">
         <v>347</v>
-      </c>
-      <c r="Y16" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z16" s="9" t="s">
-        <v>349</v>
       </c>
       <c r="AA16" s="29" t="s">
         <v>133</v>
       </c>
       <c r="AB16" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AC16" s="32" t="s">
         <v>40</v>
@@ -5767,16 +5766,16 @@
         <v>41</v>
       </c>
       <c r="AE16" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF16" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="AG16" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="AF16" s="9" t="s">
+      <c r="AH16" s="9" t="s">
         <v>352</v>
-      </c>
-      <c r="AG16" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="AH16" s="9" t="s">
-        <v>354</v>
       </c>
       <c r="AI16" s="29" t="s">
         <v>42</v>
@@ -5806,139 +5805,139 @@
         <v>140</v>
       </c>
       <c r="AR16" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="AS16" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="AT16" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="AS16" s="9" t="s">
+      <c r="AU16" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="AT16" s="9" t="s">
+      <c r="AV16" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="AU16" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="AV16" s="9" t="s">
-        <v>359</v>
       </c>
       <c r="AW16" s="30"/>
       <c r="AX16" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="AY16" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="AZ16" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="AY16" s="9" t="s">
+      <c r="BA16" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="AZ16" s="9" t="s">
+      <c r="BB16" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="BA16" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="BB16" s="9" t="s">
-        <v>364</v>
-      </c>
       <c r="BC16" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="BD16" s="29" t="s">
+        <v>892</v>
+      </c>
+      <c r="BE16" s="29" t="s">
         <v>894</v>
       </c>
-      <c r="BE16" s="29" t="s">
-        <v>896</v>
-      </c>
       <c r="BF16" s="29" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="BG16" s="29" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="BH16" s="29" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="BI16" s="29" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="BJ16" s="29" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="BK16" s="29" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="17" spans="4:63" ht="213.75" x14ac:dyDescent="0.2">
       <c r="D17" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="H17" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="J17" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="I17" s="9" t="s">
+      <c r="K17" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>718</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="M17" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="L17" s="8" t="s">
+      <c r="N17" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="O17" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="P17" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="N17" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="O17" s="8" t="s">
+      <c r="Q17" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="R17" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="S17" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="T17" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="S17" s="9" t="s">
+      <c r="U17" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="T17" s="9" t="s">
+      <c r="V17" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="U17" s="9" t="s">
+      <c r="W17" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="V17" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="W17" s="9" t="s">
-        <v>730</v>
-      </c>
       <c r="X17" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y17" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z17" s="9" t="s">
         <v>365</v>
-      </c>
-      <c r="Y17" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="Z17" s="9" t="s">
-        <v>367</v>
       </c>
       <c r="AA17" s="29" t="s">
         <v>141</v>
       </c>
       <c r="AB17" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AC17" s="32" t="s">
         <v>43</v>
@@ -5947,16 +5946,16 @@
         <v>44</v>
       </c>
       <c r="AE17" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF17" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG17" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="AF17" s="9" t="s">
+      <c r="AH17" s="9" t="s">
         <v>370</v>
-      </c>
-      <c r="AG17" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="AH17" s="9" t="s">
-        <v>372</v>
       </c>
       <c r="AI17" s="29" t="s">
         <v>45</v>
@@ -5986,131 +5985,131 @@
         <v>149</v>
       </c>
       <c r="AR17" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="AS17" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="AT17" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="AS17" s="9" t="s">
+      <c r="AU17" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="AT17" s="9" t="s">
+      <c r="AV17" s="9" t="s">
         <v>375</v>
-      </c>
-      <c r="AU17" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="AV17" s="9" t="s">
-        <v>377</v>
       </c>
       <c r="AW17" s="30"/>
       <c r="AX17" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="AY17" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AZ17" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="AY17" s="9" t="s">
+      <c r="BA17" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="AZ17" s="9" t="s">
+      <c r="BB17" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="BA17" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="BB17" s="9" t="s">
-        <v>382</v>
-      </c>
       <c r="BC17" s="9" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="BD17" s="29" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="BE17" s="29" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="BF17" s="29"/>
       <c r="BG17" s="29"/>
       <c r="BH17" s="29"/>
       <c r="BI17" s="29" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="BJ17" s="29"/>
       <c r="BK17" s="29" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="18" spans="4:63" ht="213.75" x14ac:dyDescent="0.2">
       <c r="D18" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="I18" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="J18" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="K18" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="M18" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="N18" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="O18" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="M18" s="9" t="s">
+      <c r="P18" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="N18" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="O18" s="14" t="s">
+      <c r="Q18" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="R18" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="S18" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="T18" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="R18" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="S18" s="9" t="s">
+      <c r="U18" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="T18" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>742</v>
-      </c>
       <c r="V18" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="W18" s="13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="X18" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y18" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z18" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="Y18" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="Z18" s="9" t="s">
-        <v>385</v>
       </c>
       <c r="AA18" s="34" t="s">
         <v>150</v>
       </c>
       <c r="AB18" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AC18" s="32" t="s">
         <v>46</v>
@@ -6119,16 +6118,16 @@
         <v>47</v>
       </c>
       <c r="AE18" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="AF18" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG18" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="AF18" s="9" t="s">
+      <c r="AH18" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="AG18" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="AH18" s="9" t="s">
-        <v>390</v>
       </c>
       <c r="AI18" s="29" t="s">
         <v>48</v>
@@ -6158,131 +6157,131 @@
         <v>158</v>
       </c>
       <c r="AR18" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="AS18" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="AT18" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="AS18" s="9" t="s">
+      <c r="AU18" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="AT18" s="9" t="s">
+      <c r="AV18" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="AU18" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="AV18" s="9" t="s">
-        <v>395</v>
       </c>
       <c r="AW18" s="30"/>
       <c r="AX18" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="AY18" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="AZ18" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="AY18" s="9" t="s">
+      <c r="BA18" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="AZ18" s="9" t="s">
+      <c r="BB18" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="BA18" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="BB18" s="9" t="s">
-        <v>400</v>
-      </c>
       <c r="BC18" s="9" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="BD18" s="29" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="BE18" s="29" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="BF18" s="29"/>
       <c r="BG18" s="29"/>
       <c r="BH18" s="29"/>
       <c r="BI18" s="29" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="BJ18" s="29"/>
       <c r="BK18" s="29" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="19" spans="4:63" ht="186" x14ac:dyDescent="0.2">
       <c r="D19" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>738</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="I19" s="9" t="s">
+      <c r="K19" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="M19" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="N19" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="O19" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="K19" s="15" t="s">
-        <v>738</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="M19" s="9" t="s">
+      <c r="P19" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="N19" s="15" t="s">
-        <v>738</v>
-      </c>
-      <c r="O19" s="8" t="s">
+      <c r="Q19" s="16" t="s">
         <v>748</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="R19" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="S19" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="T19" s="18" t="s">
         <v>749</v>
       </c>
-      <c r="Q19" s="16" t="s">
+      <c r="U19" s="19" t="s">
+        <v>868</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="W19" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="R19" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>750</v>
-      </c>
-      <c r="T19" s="18" t="s">
-        <v>751</v>
-      </c>
-      <c r="U19" s="19" t="s">
-        <v>870</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="W19" s="8" t="s">
-        <v>752</v>
-      </c>
       <c r="X19" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y19" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z19" s="9" t="s">
         <v>401</v>
-      </c>
-      <c r="Y19" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="Z19" s="9" t="s">
-        <v>403</v>
       </c>
       <c r="AA19" s="29" t="s">
         <v>159</v>
       </c>
       <c r="AB19" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AC19" s="32" t="s">
         <v>49</v>
@@ -6291,16 +6290,16 @@
         <v>50</v>
       </c>
       <c r="AE19" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="AF19" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="AG19" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="AF19" s="9" t="s">
+      <c r="AH19" s="9" t="s">
         <v>406</v>
-      </c>
-      <c r="AG19" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="AH19" s="9" t="s">
-        <v>408</v>
       </c>
       <c r="AI19" s="29" t="s">
         <v>160</v>
@@ -6330,129 +6329,129 @@
         <v>168</v>
       </c>
       <c r="AR19" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="AS19" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="AT19" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="AS19" s="9" t="s">
+      <c r="AU19" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="AT19" s="9" t="s">
+      <c r="AV19" s="9" t="s">
         <v>411</v>
-      </c>
-      <c r="AU19" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="AV19" s="9" t="s">
-        <v>413</v>
       </c>
       <c r="AW19" s="30"/>
       <c r="AX19" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="AY19" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="AZ19" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="AY19" s="9" t="s">
+      <c r="BA19" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="AZ19" s="9" t="s">
+      <c r="BB19" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="BA19" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="BB19" s="9" t="s">
-        <v>418</v>
-      </c>
       <c r="BC19" s="9" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="BD19" s="29" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="BE19" s="29" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="BF19" s="29"/>
       <c r="BG19" s="29"/>
       <c r="BH19" s="29"/>
       <c r="BI19" s="29" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="BJ19" s="29"/>
       <c r="BK19" s="29" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="20" spans="4:63" ht="171" x14ac:dyDescent="0.2">
       <c r="D20" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="F20" s="9" t="s">
+      <c r="J20" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>738</v>
-      </c>
-      <c r="I20" s="9" t="s">
+      <c r="K20" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="N20" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="O20" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="M20" s="9" t="s">
+      <c r="P20" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="N20" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="O20" s="8" t="s">
+      <c r="Q20" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="P20" s="15" t="s">
+      <c r="R20" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="S20" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="Q20" s="9" t="s">
+      <c r="T20" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="R20" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="S20" s="9" t="s">
+      <c r="U20" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="T20" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>763</v>
-      </c>
       <c r="V20" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="X20" s="29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Y20" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="Z20" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AA20" s="33"/>
       <c r="AB20" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC20" s="32" t="s">
         <v>51</v>
@@ -6461,16 +6460,16 @@
         <v>52</v>
       </c>
       <c r="AE20" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF20" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="AG20" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="AF20" s="9" t="s">
+      <c r="AH20" s="9" t="s">
         <v>423</v>
-      </c>
-      <c r="AG20" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="AH20" s="9" t="s">
-        <v>425</v>
       </c>
       <c r="AI20" s="29" t="s">
         <v>169</v>
@@ -6498,41 +6497,41 @@
         <v>176</v>
       </c>
       <c r="AR20" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="AS20" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="AT20" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="AS20" s="9" t="s">
+      <c r="AU20" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="AT20" s="9" t="s">
+      <c r="AV20" s="9" t="s">
         <v>428</v>
-      </c>
-      <c r="AU20" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="AV20" s="9" t="s">
-        <v>430</v>
       </c>
       <c r="AW20" s="30"/>
       <c r="AX20" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="AY20" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="AZ20" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="AY20" s="9" t="s">
+      <c r="BA20" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="AZ20" s="9" t="s">
+      <c r="BB20" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="BA20" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="BB20" s="9" t="s">
-        <v>435</v>
-      </c>
       <c r="BC20" s="9" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="BD20" s="29" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="BE20" s="29"/>
       <c r="BF20" s="29"/>
@@ -6541,76 +6540,76 @@
       <c r="BI20" s="29"/>
       <c r="BJ20" s="29"/>
       <c r="BK20" s="29" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="21" spans="4:63" ht="156.75" x14ac:dyDescent="0.2">
       <c r="D21" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="G21" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="J21" s="9" t="s">
         <v>766</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>738</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>768</v>
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="15" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="T21" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="R21" s="15" t="s">
-        <v>738</v>
-      </c>
-      <c r="S21" s="9" t="s">
+      <c r="U21" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="T21" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>773</v>
-      </c>
       <c r="V21" s="15" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="X21" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y21" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z21" s="29" t="s">
         <v>436</v>
-      </c>
-      <c r="Y21" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="Z21" s="29" t="s">
-        <v>438</v>
       </c>
       <c r="AA21" s="29"/>
       <c r="AB21" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AC21" s="32" t="s">
         <v>53</v>
@@ -6619,16 +6618,16 @@
         <v>54</v>
       </c>
       <c r="AE21" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF21" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="AG21" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="AF21" s="9" t="s">
+      <c r="AH21" s="9" t="s">
         <v>441</v>
-      </c>
-      <c r="AG21" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="AH21" s="9" t="s">
-        <v>443</v>
       </c>
       <c r="AI21" s="29" t="s">
         <v>177</v>
@@ -6656,37 +6655,37 @@
         <v>184</v>
       </c>
       <c r="AR21" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="AS21" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="AT21" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="AS21" s="9" t="s">
+      <c r="AU21" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="AT21" s="9" t="s">
+      <c r="AV21" s="9" t="s">
         <v>446</v>
-      </c>
-      <c r="AU21" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="AV21" s="9" t="s">
-        <v>448</v>
       </c>
       <c r="AW21" s="30"/>
       <c r="AX21" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AY21" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AZ21" s="30"/>
       <c r="BA21" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="BB21" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="BC21" s="9"/>
       <c r="BD21" s="29" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="BE21" s="29"/>
       <c r="BF21" s="29"/>
@@ -6695,70 +6694,70 @@
       <c r="BI21" s="29"/>
       <c r="BJ21" s="29"/>
       <c r="BK21" s="35" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="22" spans="4:63" ht="142.5" x14ac:dyDescent="0.2">
       <c r="D22" s="9" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="J22" s="9" t="s">
         <v>776</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>778</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="U22" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="R22" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="T22" s="17" t="s">
-        <v>750</v>
-      </c>
-      <c r="U22" s="9" t="s">
-        <v>782</v>
-      </c>
       <c r="V22" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="X22" s="29" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y22" s="29"/>
       <c r="Z22" s="29"/>
       <c r="AA22" s="29"/>
       <c r="AB22" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AC22" s="32" t="s">
         <v>55</v>
@@ -6767,16 +6766,16 @@
         <v>56</v>
       </c>
       <c r="AE22" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF22" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG22" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="AF22" s="9" t="s">
+      <c r="AH22" s="9" t="s">
         <v>456</v>
-      </c>
-      <c r="AG22" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="AH22" s="9" t="s">
-        <v>458</v>
       </c>
       <c r="AI22" s="29" t="s">
         <v>185</v>
@@ -6800,35 +6799,35 @@
       </c>
       <c r="AQ22" s="29"/>
       <c r="AR22" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="AS22" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="AT22" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="AS22" s="9" t="s">
+      <c r="AU22" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="AT22" s="9" t="s">
+      <c r="AV22" s="9" t="s">
         <v>461</v>
-      </c>
-      <c r="AU22" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="AV22" s="9" t="s">
-        <v>463</v>
       </c>
       <c r="AW22" s="30"/>
       <c r="AX22" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AY22" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AZ22" s="30"/>
       <c r="BA22" s="30"/>
       <c r="BB22" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="BC22" s="9"/>
       <c r="BD22" s="29" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="BE22" s="29"/>
       <c r="BF22" s="29"/>
@@ -6837,64 +6836,64 @@
       <c r="BI22" s="29"/>
       <c r="BJ22" s="29"/>
       <c r="BK22" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="23" spans="4:63" ht="213.75" x14ac:dyDescent="0.2">
       <c r="D23" s="9" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="9" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="9" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="T23" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="R23" s="15" t="s">
-        <v>759</v>
-      </c>
-      <c r="S23" s="9" t="s">
+      <c r="U23" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="T23" s="9" t="s">
+      <c r="V23" s="15" t="s">
         <v>791</v>
       </c>
-      <c r="U23" s="9" t="s">
-        <v>792</v>
-      </c>
-      <c r="V23" s="15" t="s">
-        <v>793</v>
-      </c>
       <c r="W23" s="15" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="X23" s="30"/>
       <c r="Y23" s="29"/>
       <c r="Z23" s="29"/>
       <c r="AA23" s="29"/>
       <c r="AB23" s="33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AC23" s="32" t="s">
         <v>57</v>
@@ -6903,16 +6902,16 @@
         <v>58</v>
       </c>
       <c r="AE23" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="AF23" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="AG23" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="AF23" s="9" t="s">
+      <c r="AH23" s="9" t="s">
         <v>468</v>
-      </c>
-      <c r="AG23" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="AH23" s="9" t="s">
-        <v>470</v>
       </c>
       <c r="AI23" s="29" t="s">
         <v>191</v>
@@ -6936,35 +6935,35 @@
       </c>
       <c r="AQ23" s="29"/>
       <c r="AR23" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="AS23" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT23" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="AS23" s="9" t="s">
+      <c r="AU23" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="AT23" s="9" t="s">
+      <c r="AV23" s="9" t="s">
         <v>473</v>
-      </c>
-      <c r="AU23" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="AV23" s="9" t="s">
-        <v>475</v>
       </c>
       <c r="AW23" s="30"/>
       <c r="AX23" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AY23" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AZ23" s="30"/>
       <c r="BA23" s="30"/>
       <c r="BB23" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="BC23" s="9"/>
       <c r="BD23" s="29" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="BE23" s="29"/>
       <c r="BF23" s="29"/>
@@ -6973,58 +6972,58 @@
       <c r="BI23" s="29"/>
       <c r="BJ23" s="29"/>
       <c r="BK23" s="9" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="24" spans="4:63" ht="213.75" x14ac:dyDescent="0.2">
       <c r="D24" s="9" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="9" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="15" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="9" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="R24" s="8"/>
       <c r="S24" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="U24" s="9" t="s">
         <v>799</v>
-      </c>
-      <c r="T24" s="9" t="s">
-        <v>800</v>
-      </c>
-      <c r="U24" s="9" t="s">
-        <v>801</v>
       </c>
       <c r="V24" s="8"/>
       <c r="W24" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="X24" s="30"/>
       <c r="Y24" s="29"/>
       <c r="Z24" s="37"/>
       <c r="AA24" s="37"/>
       <c r="AB24" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AC24" s="32" t="s">
         <v>59</v>
@@ -7033,16 +7032,16 @@
         <v>60</v>
       </c>
       <c r="AE24" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="AF24" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="AG24" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="AF24" s="9" t="s">
+      <c r="AH24" s="9" t="s">
         <v>481</v>
-      </c>
-      <c r="AG24" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="AH24" s="9" t="s">
-        <v>483</v>
       </c>
       <c r="AI24" s="29" t="s">
         <v>197</v>
@@ -7063,23 +7062,23 @@
       <c r="AQ24" s="29"/>
       <c r="AR24" s="29"/>
       <c r="AS24" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="AT24" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="AU24" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="AV24" s="9" t="s">
         <v>484</v>
-      </c>
-      <c r="AT24" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="AU24" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="AV24" s="9" t="s">
-        <v>486</v>
       </c>
       <c r="AW24" s="30"/>
       <c r="AX24" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AY24" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AZ24" s="30"/>
       <c r="BA24" s="30"/>
@@ -7096,46 +7095,46 @@
     </row>
     <row r="25" spans="4:63" ht="199.5" x14ac:dyDescent="0.2">
       <c r="D25" s="8" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="12" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="9" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="9" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="N25" s="8"/>
       <c r="O25" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="R25" s="8"/>
       <c r="S25" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="U25" s="9" t="s">
         <v>806</v>
-      </c>
-      <c r="T25" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>808</v>
       </c>
       <c r="V25" s="8"/>
       <c r="W25" s="15" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="X25" s="30"/>
       <c r="Y25" s="30"/>
@@ -7149,16 +7148,16 @@
         <v>62</v>
       </c>
       <c r="AE25" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="AF25" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="AG25" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="AF25" s="9" t="s">
+      <c r="AH25" s="9" t="s">
         <v>490</v>
-      </c>
-      <c r="AG25" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="AH25" s="9" t="s">
-        <v>492</v>
       </c>
       <c r="AI25" s="29" t="s">
         <v>201</v>
@@ -7179,23 +7178,23 @@
       <c r="AQ25" s="29"/>
       <c r="AR25" s="30"/>
       <c r="AS25" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="AT25" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="AU25" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="AT25" s="9" t="s">
+      <c r="AV25" s="9" t="s">
         <v>494</v>
-      </c>
-      <c r="AU25" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="AV25" s="9" t="s">
-        <v>496</v>
       </c>
       <c r="AW25" s="30"/>
       <c r="AX25" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AY25" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AZ25" s="30"/>
       <c r="BA25" s="30"/>
@@ -7212,42 +7211,42 @@
     </row>
     <row r="26" spans="4:63" ht="199.5" x14ac:dyDescent="0.2">
       <c r="D26" s="8" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="15" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="R26" s="8"/>
       <c r="S26" s="21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
@@ -7263,16 +7262,16 @@
         <v>64</v>
       </c>
       <c r="AE26" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="AF26" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="AG26" s="40" t="s">
         <v>499</v>
       </c>
-      <c r="AF26" s="9" t="s">
+      <c r="AH26" s="38" t="s">
         <v>500</v>
-      </c>
-      <c r="AG26" s="40" t="s">
-        <v>501</v>
-      </c>
-      <c r="AH26" s="38" t="s">
-        <v>502</v>
       </c>
       <c r="AI26" s="29" t="s">
         <v>205</v>
@@ -7294,18 +7293,18 @@
       <c r="AR26" s="30"/>
       <c r="AS26" s="30"/>
       <c r="AT26" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AU26" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AV26" s="30"/>
       <c r="AW26" s="30"/>
       <c r="AX26" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AY26" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AZ26" s="30"/>
       <c r="BA26" s="30"/>
@@ -7322,40 +7321,40 @@
     </row>
     <row r="27" spans="4:63" ht="199.5" x14ac:dyDescent="0.2">
       <c r="D27" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="9" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="9" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="R27" s="8"/>
       <c r="S27" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="T27" s="20" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
@@ -7371,16 +7370,16 @@
         <v>66</v>
       </c>
       <c r="AE27" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="AF27" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="AG27" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="AF27" s="9" t="s">
+      <c r="AH27" s="9" t="s">
         <v>508</v>
-      </c>
-      <c r="AG27" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="AH27" s="9" t="s">
-        <v>510</v>
       </c>
       <c r="AI27" s="29" t="s">
         <v>209</v>
@@ -7402,18 +7401,18 @@
       <c r="AR27" s="30"/>
       <c r="AS27" s="30"/>
       <c r="AT27" s="38" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AU27" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AV27" s="30"/>
       <c r="AW27" s="30"/>
       <c r="AX27" s="9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AY27" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AZ27" s="30"/>
       <c r="BA27" s="30"/>
@@ -7430,40 +7429,40 @@
     </row>
     <row r="28" spans="4:63" ht="213.75" x14ac:dyDescent="0.2">
       <c r="D28" s="8" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="9" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="9" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="R28" s="8"/>
       <c r="S28" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="U28" s="9" t="s">
         <v>827</v>
-      </c>
-      <c r="T28" s="8" t="s">
-        <v>828</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>829</v>
       </c>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
@@ -7479,16 +7478,16 @@
         <v>68</v>
       </c>
       <c r="AE28" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="AF28" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="AG28" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="AH28" s="9" t="s">
         <v>515</v>
-      </c>
-      <c r="AF28" s="38" t="s">
-        <v>502</v>
-      </c>
-      <c r="AG28" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="AH28" s="9" t="s">
-        <v>517</v>
       </c>
       <c r="AI28" s="29" t="s">
         <v>212</v>
@@ -7510,18 +7509,18 @@
       <c r="AR28" s="30"/>
       <c r="AS28" s="30"/>
       <c r="AT28" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AU28" s="38" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AV28" s="30"/>
       <c r="AW28" s="30"/>
       <c r="AX28" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AY28" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AZ28" s="30"/>
       <c r="BA28" s="30"/>
@@ -7538,40 +7537,40 @@
     </row>
     <row r="29" spans="4:63" ht="199.5" x14ac:dyDescent="0.2">
       <c r="D29" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="9" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="R29" s="8"/>
       <c r="S29" s="9" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
@@ -7590,13 +7589,13 @@
         <v>250</v>
       </c>
       <c r="AF29" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="AG29" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="AH29" s="9" t="s">
         <v>521</v>
-      </c>
-      <c r="AG29" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="AH29" s="9" t="s">
-        <v>523</v>
       </c>
       <c r="AI29" s="29" t="s">
         <v>216</v>
@@ -7618,18 +7617,18 @@
       <c r="AR29" s="30"/>
       <c r="AS29" s="30"/>
       <c r="AT29" s="9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AU29" s="9" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AV29" s="30"/>
       <c r="AW29" s="30"/>
       <c r="AX29" s="9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AY29" s="9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AZ29" s="30"/>
       <c r="BA29" s="30"/>
@@ -7646,40 +7645,40 @@
     </row>
     <row r="30" spans="4:63" ht="142.5" x14ac:dyDescent="0.2">
       <c r="D30" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="9" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="R30" s="15"/>
       <c r="S30" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="T30" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="U30" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="T30" s="9" t="s">
-        <v>839</v>
-      </c>
-      <c r="U30" s="9" t="s">
-        <v>840</v>
       </c>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
@@ -7695,10 +7694,10 @@
         <v>71</v>
       </c>
       <c r="AE30" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AF30" s="9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AG30" s="30"/>
       <c r="AH30" s="38" t="s">
@@ -7722,18 +7721,18 @@
       <c r="AR30" s="30"/>
       <c r="AS30" s="30"/>
       <c r="AT30" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AU30" s="9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AV30" s="30"/>
       <c r="AW30" s="30"/>
       <c r="AX30" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AY30" s="9" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AZ30" s="30"/>
       <c r="BA30" s="30"/>
@@ -7750,40 +7749,40 @@
     </row>
     <row r="31" spans="4:63" ht="114" x14ac:dyDescent="0.2">
       <c r="D31" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="9" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
       <c r="M31" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="R31" s="15"/>
       <c r="S31" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="U31" s="9" t="s">
         <v>843</v>
-      </c>
-      <c r="T31" s="9" t="s">
-        <v>844</v>
-      </c>
-      <c r="U31" s="9" t="s">
-        <v>845</v>
       </c>
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
@@ -7799,14 +7798,14 @@
         <v>72</v>
       </c>
       <c r="AE31" s="38" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AF31" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AG31" s="30"/>
       <c r="AH31" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AI31" s="37" t="s">
         <v>225</v>
@@ -7826,18 +7825,18 @@
       <c r="AR31" s="30"/>
       <c r="AS31" s="30"/>
       <c r="AT31" s="38" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AU31" s="9" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AV31" s="30"/>
       <c r="AW31" s="30"/>
       <c r="AX31" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AY31" s="9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AZ31" s="30"/>
       <c r="BA31" s="30"/>
@@ -7854,40 +7853,40 @@
     </row>
     <row r="32" spans="4:63" ht="99.75" x14ac:dyDescent="0.2">
       <c r="D32" s="15" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
       <c r="M32" s="15" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="R32" s="15"/>
       <c r="S32" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
@@ -7903,14 +7902,14 @@
         <v>229</v>
       </c>
       <c r="AE32" s="9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AF32" s="38" t="s">
         <v>250</v>
       </c>
       <c r="AG32" s="30"/>
       <c r="AH32" s="38" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AI32" s="42" t="s">
         <v>230</v>
@@ -7930,18 +7929,18 @@
       <c r="AR32" s="30"/>
       <c r="AS32" s="30"/>
       <c r="AT32" s="9" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AU32" s="38" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AV32" s="30"/>
       <c r="AW32" s="30"/>
       <c r="AX32" s="9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AY32" s="9" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AZ32" s="30"/>
       <c r="BA32" s="30"/>
@@ -7958,19 +7957,19 @@
     </row>
     <row r="33" spans="4:63" ht="99.75" x14ac:dyDescent="0.2">
       <c r="D33" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
@@ -7979,17 +7978,17 @@
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="R33" s="15"/>
       <c r="S33" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="U33" s="9" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
@@ -8005,14 +8004,14 @@
         <v>73</v>
       </c>
       <c r="AE33" s="9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AF33" s="9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AG33" s="30"/>
       <c r="AH33" s="9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AI33" s="37" t="s">
         <v>234</v>
@@ -8032,18 +8031,18 @@
       <c r="AR33" s="30"/>
       <c r="AS33" s="30"/>
       <c r="AT33" s="38" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AU33" s="9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AV33" s="30"/>
       <c r="AW33" s="30"/>
       <c r="AX33" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AY33" s="9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AZ33" s="30"/>
       <c r="BA33" s="30"/>
@@ -8060,17 +8059,17 @@
     </row>
     <row r="34" spans="4:63" ht="156.75" x14ac:dyDescent="0.2">
       <c r="D34" s="15" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
@@ -8079,17 +8078,17 @@
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="15" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="R34" s="15"/>
       <c r="S34" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="V34" s="15"/>
       <c r="W34" s="15"/>
@@ -8101,14 +8100,14 @@
       <c r="AC34" s="37"/>
       <c r="AD34" s="30"/>
       <c r="AE34" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AF34" s="38" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AG34" s="30"/>
       <c r="AH34" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AI34" s="37" t="s">
         <v>237</v>
@@ -8128,18 +8127,18 @@
       <c r="AR34" s="30"/>
       <c r="AS34" s="30"/>
       <c r="AT34" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AU34" s="38" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AV34" s="30"/>
       <c r="AW34" s="30"/>
       <c r="AX34" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AY34" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AZ34" s="30"/>
       <c r="BA34" s="30"/>
@@ -8158,13 +8157,13 @@
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
@@ -8173,17 +8172,17 @@
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="R35" s="15"/>
       <c r="S35" s="15" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="T35" s="18" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U35" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="V35" s="15"/>
       <c r="W35" s="15"/>
@@ -8195,14 +8194,14 @@
       <c r="AC35" s="37"/>
       <c r="AD35" s="30"/>
       <c r="AE35" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AF35" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AG35" s="30"/>
       <c r="AH35" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AI35" s="37" t="s">
         <v>240</v>
@@ -8222,18 +8221,18 @@
       <c r="AR35" s="30"/>
       <c r="AS35" s="30"/>
       <c r="AT35" s="9" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AU35" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AV35" s="30"/>
       <c r="AW35" s="30"/>
       <c r="AX35" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AY35" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AZ35" s="30"/>
       <c r="BA35" s="30"/>
@@ -8252,13 +8251,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
@@ -8267,17 +8266,17 @@
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="15" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="R36" s="15"/>
       <c r="S36" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="T36" s="9" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="V36" s="15"/>
       <c r="W36" s="15"/>
@@ -8289,14 +8288,14 @@
       <c r="AC36" s="30"/>
       <c r="AD36" s="30"/>
       <c r="AE36" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AF36" s="9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AG36" s="30"/>
       <c r="AH36" s="9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AI36" s="37"/>
       <c r="AJ36" s="37" t="s">
@@ -8314,18 +8313,18 @@
       <c r="AR36" s="30"/>
       <c r="AS36" s="30"/>
       <c r="AT36" s="9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AU36" s="9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AV36" s="30"/>
       <c r="AW36" s="30"/>
       <c r="AX36" s="9" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="AY36" s="38" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AZ36" s="30"/>
       <c r="BA36" s="30"/>
@@ -8348,7 +8347,7 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
@@ -8357,17 +8356,17 @@
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="15" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="R37" s="15"/>
       <c r="S37" s="15" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="V37" s="15"/>
       <c r="W37" s="15"/>
@@ -8379,14 +8378,14 @@
       <c r="AC37" s="30"/>
       <c r="AD37" s="30"/>
       <c r="AE37" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AG37" s="30"/>
       <c r="AH37" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AI37" s="37"/>
       <c r="AJ37" s="37" t="s">
@@ -8402,18 +8401,18 @@
       <c r="AR37" s="30"/>
       <c r="AS37" s="30"/>
       <c r="AT37" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AU37" s="9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AV37" s="30"/>
       <c r="AW37" s="30"/>
       <c r="AX37" s="9" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="AY37" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AZ37" s="30"/>
       <c r="BA37" s="30"/>
@@ -8436,7 +8435,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -8445,15 +8444,15 @@
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="9" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
       <c r="T38" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="V38" s="15"/>
       <c r="W38" s="15"/>
@@ -8465,14 +8464,14 @@
       <c r="AC38" s="30"/>
       <c r="AD38" s="30"/>
       <c r="AE38" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AF38" s="9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AG38" s="30"/>
       <c r="AH38" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AI38" s="37"/>
       <c r="AJ38" s="42" t="s">
@@ -8488,18 +8487,18 @@
       <c r="AR38" s="30"/>
       <c r="AS38" s="30"/>
       <c r="AT38" s="38" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AU38" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AV38" s="30"/>
       <c r="AW38" s="30"/>
       <c r="AX38" s="44" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AY38" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AZ38" s="30"/>
       <c r="BA38" s="30"/>
@@ -8522,7 +8521,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
@@ -8534,10 +8533,10 @@
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
       <c r="T39" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="V39" s="15"/>
       <c r="W39" s="15"/>
@@ -8549,14 +8548,14 @@
       <c r="AC39" s="30"/>
       <c r="AD39" s="30"/>
       <c r="AE39" s="9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="AF39" s="9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="AG39" s="30"/>
       <c r="AH39" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AI39" s="37"/>
       <c r="AJ39" s="37" t="s">
@@ -8572,18 +8571,18 @@
       <c r="AR39" s="30"/>
       <c r="AS39" s="30"/>
       <c r="AT39" s="9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AU39" s="38" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="AV39" s="30"/>
       <c r="AW39" s="30"/>
       <c r="AX39" s="9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AY39" s="9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AZ39" s="30"/>
       <c r="BA39" s="30"/>
@@ -8616,10 +8615,10 @@
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
       <c r="T40" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="U40" s="15" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
@@ -8631,14 +8630,14 @@
       <c r="AC40" s="30"/>
       <c r="AD40" s="30"/>
       <c r="AE40" s="38" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AF40" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AG40" s="30"/>
       <c r="AH40" s="9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AI40" s="37"/>
       <c r="AJ40" s="37" t="s">
@@ -8654,18 +8653,18 @@
       <c r="AR40" s="30"/>
       <c r="AS40" s="30"/>
       <c r="AT40" s="9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AU40" s="9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AV40" s="30"/>
       <c r="AW40" s="30"/>
       <c r="AX40" s="9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AY40" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AZ40" s="30"/>
       <c r="BA40" s="30"/>
@@ -8698,10 +8697,10 @@
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
       <c r="T41" s="15" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V41" s="15"/>
       <c r="W41" s="15"/>
@@ -8713,14 +8712,14 @@
       <c r="AC41" s="30"/>
       <c r="AD41" s="30"/>
       <c r="AE41" s="9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AF41" s="9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AG41" s="30"/>
       <c r="AH41" s="9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AI41" s="37"/>
       <c r="AJ41" s="37" t="s">
@@ -8736,18 +8735,18 @@
       <c r="AR41" s="30"/>
       <c r="AS41" s="30"/>
       <c r="AT41" s="38" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AU41" s="9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AV41" s="30"/>
       <c r="AW41" s="30"/>
       <c r="AX41" s="9" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AY41" s="9" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AZ41" s="30"/>
       <c r="BA41" s="30"/>
@@ -8780,10 +8779,10 @@
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
       <c r="T42" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="U42" s="15" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="V42" s="15"/>
       <c r="W42" s="15"/>
@@ -8795,14 +8794,14 @@
       <c r="AC42" s="30"/>
       <c r="AD42" s="30"/>
       <c r="AE42" s="9" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AF42" s="9" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AG42" s="30"/>
       <c r="AH42" s="38" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AI42" s="37"/>
       <c r="AJ42" s="42" t="s">
@@ -8818,15 +8817,15 @@
       <c r="AR42" s="30"/>
       <c r="AS42" s="30"/>
       <c r="AT42" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AU42" s="38" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AV42" s="30"/>
       <c r="AW42" s="30"/>
       <c r="AX42" s="38" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AY42" s="30"/>
       <c r="AZ42" s="30"/>
@@ -8860,7 +8859,7 @@
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
       <c r="T43" s="15" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
@@ -8873,14 +8872,14 @@
       <c r="AC43" s="30"/>
       <c r="AD43" s="30"/>
       <c r="AE43" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AF43" s="9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AG43" s="30"/>
       <c r="AH43" s="9" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AI43" s="37"/>
       <c r="AJ43" s="37" t="s">
@@ -8896,18 +8895,18 @@
       <c r="AR43" s="30"/>
       <c r="AS43" s="30"/>
       <c r="AT43" s="9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AU43" s="9" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AV43" s="30"/>
       <c r="AW43" s="30"/>
       <c r="AX43" s="9" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AY43" s="38" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AZ43" s="30"/>
       <c r="BA43" s="30"/>
@@ -8940,7 +8939,7 @@
       <c r="R44" s="45"/>
       <c r="S44" s="45"/>
       <c r="T44" s="9" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="U44" s="45"/>
       <c r="V44" s="45"/>
@@ -8956,11 +8955,11 @@
         <v>250</v>
       </c>
       <c r="AF44" s="9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG44" s="30"/>
       <c r="AH44" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AI44" s="37"/>
       <c r="AJ44" s="42" t="s">
@@ -8976,18 +8975,18 @@
       <c r="AR44" s="30"/>
       <c r="AS44" s="30"/>
       <c r="AT44" s="38" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AU44" s="9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AV44" s="30"/>
       <c r="AW44" s="30"/>
       <c r="AX44" s="38" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AY44" s="9" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AZ44" s="30"/>
       <c r="BA44" s="30"/>
@@ -9020,7 +9019,7 @@
       <c r="R45" s="45"/>
       <c r="S45" s="45"/>
       <c r="T45" s="9" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="U45" s="45"/>
       <c r="V45" s="45"/>
@@ -9033,14 +9032,14 @@
       <c r="AC45" s="30"/>
       <c r="AD45" s="30"/>
       <c r="AE45" s="9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AF45" s="38" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AG45" s="30"/>
       <c r="AH45" s="9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AI45" s="37"/>
       <c r="AJ45" s="37" t="s">
@@ -9056,18 +9055,18 @@
       <c r="AR45" s="30"/>
       <c r="AS45" s="30"/>
       <c r="AT45" s="9" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AU45" s="38" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AV45" s="30"/>
       <c r="AW45" s="30"/>
       <c r="AX45" s="9" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AY45" s="9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AZ45" s="30"/>
       <c r="BA45" s="30"/>
@@ -9100,7 +9099,7 @@
       <c r="R46" s="45"/>
       <c r="S46" s="45"/>
       <c r="T46" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="U46" s="45"/>
       <c r="V46" s="45"/>
@@ -9113,10 +9112,10 @@
       <c r="AC46" s="30"/>
       <c r="AD46" s="30"/>
       <c r="AE46" s="40" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AF46" s="9" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AG46" s="30"/>
       <c r="AH46" s="38" t="s">
@@ -9137,15 +9136,15 @@
       <c r="AS46" s="30"/>
       <c r="AT46" s="30"/>
       <c r="AU46" s="9" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AV46" s="30"/>
       <c r="AW46" s="30"/>
       <c r="AX46" s="9" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AY46" s="9" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AZ46" s="30"/>
       <c r="BA46" s="30"/>
@@ -9189,14 +9188,14 @@
       <c r="AC47" s="30"/>
       <c r="AD47" s="30"/>
       <c r="AE47" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AF47" s="38" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AG47" s="30"/>
       <c r="AH47" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AI47" s="37"/>
       <c r="AJ47" s="37" t="s">
@@ -9216,7 +9215,7 @@
       <c r="AV47" s="30"/>
       <c r="AW47" s="30"/>
       <c r="AX47" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AY47" s="30"/>
       <c r="AZ47" s="30"/>
@@ -9261,14 +9260,14 @@
       <c r="AC48" s="30"/>
       <c r="AD48" s="30"/>
       <c r="AE48" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AF48" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AG48" s="30"/>
       <c r="AH48" s="38" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AI48" s="37"/>
       <c r="AJ48" s="37"/>
@@ -9330,11 +9329,11 @@
       <c r="AD49" s="30"/>
       <c r="AE49" s="30"/>
       <c r="AF49" s="9" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AG49" s="30"/>
       <c r="AH49" s="9" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AI49" s="9"/>
       <c r="AJ49" s="9"/>
@@ -9396,11 +9395,11 @@
       <c r="AD50" s="30"/>
       <c r="AE50" s="30"/>
       <c r="AF50" s="9" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AG50" s="30"/>
       <c r="AH50" s="9" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AI50" s="9"/>
       <c r="AJ50" s="9"/>
@@ -9462,11 +9461,11 @@
       <c r="AD51" s="30"/>
       <c r="AE51" s="30"/>
       <c r="AF51" s="38" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AG51" s="30"/>
       <c r="AH51" s="9" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AI51" s="9"/>
       <c r="AJ51" s="9"/>
@@ -9528,7 +9527,7 @@
       <c r="AD52" s="30"/>
       <c r="AE52" s="30"/>
       <c r="AF52" s="9" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AG52" s="30"/>
       <c r="AH52" s="30"/>
@@ -9592,7 +9591,7 @@
       <c r="AD53" s="30"/>
       <c r="AE53" s="30"/>
       <c r="AF53" s="9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AG53" s="30"/>
       <c r="AH53" s="30"/>
@@ -9656,7 +9655,7 @@
       <c r="AD54" s="30"/>
       <c r="AE54" s="30"/>
       <c r="AF54" s="9" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AG54" s="30"/>
       <c r="AH54" s="30"/>
@@ -9754,7 +9753,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1"/>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
